--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Đl Duy nhất</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Thông tin về sản phẩm</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>Tên khách hàng</t>
   </si>
   <si>
@@ -72,31 +69,19 @@
     <t>THÀNH TIỀN</t>
   </si>
   <si>
-    <t>Chiết khấu</t>
-  </si>
-  <si>
-    <t>Thành tiền sau CK</t>
-  </si>
-  <si>
-    <t>Tiền mặt ( 111)</t>
-  </si>
-  <si>
-    <t>Chuyển khoản (112)</t>
-  </si>
-  <si>
-    <t>Chưa thanh toán (131)</t>
-  </si>
-  <si>
-    <t>Giảm giá</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>DOANH SỐ ĐẠI LÝ DUY NHẤT</t>
   </si>
   <si>
     <t>TỔNG CỘNG</t>
+  </si>
+  <si>
+    <t>Đại Lý Duy nhất Doanh thu &gt;50 triệu thì thưởng 50% bằng hàng</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
   </si>
 </sst>
 </file>
@@ -106,9 +91,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +141,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -327,206 +332,201 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,458 +804,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="46" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="46" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="5" style="46" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="46" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="12" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="41" t="s">
+    <row r="1" spans="1:9" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:9" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>499</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44029</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="5" spans="1:15" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="32" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="G8" s="2">
+        <v>455000</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H16" si="0">F8*G8</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" s="32" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>499</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44029</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4">
-        <v>455000</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" ref="H8:H15" si="0">F8*G8</f>
-        <v>10920000</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ref="K8:K15" si="1">H8*(1-J8)-I8</f>
-        <v>5460000</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="G9" s="5">
         <v>475000</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="1"/>
-        <v>2850000</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15" t="s">
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="6">
         <v>12</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="7">
         <v>485000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="1"/>
-        <v>2910000</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
         <v>620</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="31">
         <v>44036</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="8">
         <v>24</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="9">
         <v>455000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" si="1"/>
-        <v>5460000</v>
-      </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="18" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="8">
         <v>12</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="9">
         <v>465000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" si="1"/>
-        <v>2790000</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="18" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="8">
         <v>12</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="9">
         <v>475000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" si="1"/>
-        <v>2850000</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>624</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="31">
         <v>44041</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="8">
         <v>24</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="9">
         <v>225000</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="19">
-        <f t="shared" si="1"/>
-        <v>2700000</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="43" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="12">
         <v>24</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="13">
         <v>455000</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="44">
-        <f t="shared" si="1"/>
-        <v>5460000</v>
-      </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-    </row>
-    <row r="16" spans="1:15" s="63" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62">
-        <f>SUM(H8:H15)</f>
-        <v>60960000</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62">
-        <f>SUM(K8:K15)</f>
-        <v>30480000</v>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>655</v>
+      </c>
+      <c r="B16" s="53">
+        <v>44053</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9">
+        <v>455000</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18">
+        <f>SUM(H8:H16)</f>
+        <v>71880000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="65">
+        <f>H17/2</f>
+        <v>35940000</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O7"/>
+  <mergeCells count="25">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>Đl Duy nhất</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>1CX90</t>
   </si>
@@ -75,23 +73,42 @@
     <t>TỔNG CỘNG</t>
   </si>
   <si>
-    <t>Đại Lý Duy nhất Doanh thu &gt;50 triệu thì thưởng 50% bằng hàng</t>
-  </si>
-  <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
   <si>
     <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>ĐL Duy nhất</t>
+  </si>
+  <si>
+    <t>GCX45</t>
+  </si>
+  <si>
+    <t>SN45</t>
+  </si>
+  <si>
+    <t>ĐL Nhất Nhất</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 6 hộp số 1 nhỏ ck 35%</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Số lượng (thùng)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -162,7 +179,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +298,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -331,12 +341,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,85 +389,22 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,39 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,9 +430,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -517,16 +442,198 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,365 +911,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="8.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="11" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="H6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="I6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="93"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>499</v>
       </c>
       <c r="B8" s="31">
         <v>44029</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2">
+        <v>455000</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I16" si="0">G8*H8</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>455000</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ref="H8:H16" si="0">F8*G8</f>
-        <v>10920000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>475000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="41"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
         <v>12</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>485000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>620</v>
       </c>
       <c r="B11" s="31">
         <v>44036</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="F11" s="83">
+        <v>2</v>
+      </c>
+      <c r="G11" s="83">
         <v>24</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="84">
         <v>455000</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="87">
+        <v>1</v>
+      </c>
+      <c r="G12" s="87">
         <v>12</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="88">
         <v>465000</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="85">
+        <v>1</v>
+      </c>
+      <c r="G13" s="85">
         <v>12</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="86">
         <v>475000</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>624</v>
       </c>
       <c r="B14" s="31">
         <v>44041</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="C14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="9">
+      <c r="E14" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="83">
+        <v>1</v>
+      </c>
+      <c r="G14" s="83">
+        <v>24</v>
+      </c>
+      <c r="H14" s="84">
         <v>225000</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="84">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2</v>
+      </c>
+      <c r="G15" s="85">
         <v>24</v>
       </c>
-      <c r="G15" s="13">
+      <c r="H15" s="86">
         <v>455000</v>
       </c>
-      <c r="H15" s="13">
+      <c r="I15" s="86">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>655</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="21">
         <v>44053</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8">
         <v>24</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>455000</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18">
-        <f>SUM(H8:H16)</f>
-        <v>71880000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="65">
-        <f>H17/2</f>
-        <v>35940000</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="M16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="56" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <v>661</v>
+      </c>
+      <c r="B17" s="53">
+        <v>44070</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="54">
+        <v>2</v>
+      </c>
+      <c r="G17" s="54">
+        <v>24</v>
+      </c>
+      <c r="H17" s="55">
+        <v>455000</v>
+      </c>
+      <c r="I17" s="55">
+        <f t="shared" ref="I17:I20" si="1">G17*H17</f>
+        <v>10920000</v>
+      </c>
+      <c r="M17" s="89">
+        <f>6*225000*(1-35%)</f>
+        <v>877500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68">
+        <v>665</v>
+      </c>
+      <c r="B18" s="69">
+        <v>44088</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="71">
+        <v>2</v>
+      </c>
+      <c r="G18" s="71">
+        <v>24</v>
+      </c>
+      <c r="H18" s="72">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="73">
+        <f>G18*H18</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="77">
+        <v>2</v>
+      </c>
+      <c r="G19" s="77">
+        <v>24</v>
+      </c>
+      <c r="H19" s="78">
+        <v>465000</v>
+      </c>
+      <c r="I19" s="79">
+        <f>G19*H19</f>
+        <v>11160000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
+        <v>670</v>
+      </c>
+      <c r="B20" s="82">
+        <v>44092</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="54">
+        <v>1</v>
+      </c>
+      <c r="G20" s="80">
+        <v>24</v>
+      </c>
+      <c r="H20" s="81">
+        <v>225000</v>
+      </c>
+      <c r="I20" s="81">
+        <f>G20*H20</f>
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="91">
+        <f>SUM(F8:F20)</f>
+        <v>20</v>
+      </c>
+      <c r="G21" s="91">
+        <f>SUM(G8:G20)</f>
+        <v>264</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14">
+        <f>SUM(I8:I20)</f>
+        <v>110280000</v>
+      </c>
+      <c r="M21" s="90">
+        <f>I21-M17</f>
+        <v>109402500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="30">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>776</v>
+      </c>
+      <c r="B10" s="58">
+        <v>44070</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="60">
+        <v>5</v>
+      </c>
+      <c r="G10" s="61">
+        <v>255000</v>
+      </c>
+      <c r="H10" s="61">
+        <f>F10*G10</f>
+        <v>1275000</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="63">
+        <f>H10*(1-I10)</f>
+        <v>637500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="60">
+        <v>7</v>
+      </c>
+      <c r="G11" s="61">
+        <v>550000</v>
+      </c>
+      <c r="H11" s="61">
+        <f>F11*G11</f>
+        <v>3850000</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="63">
+        <f>H11*(1-I11)</f>
+        <v>1925000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>671</v>
+      </c>
+      <c r="B12" s="58">
+        <v>44093</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="60">
+        <v>5</v>
+      </c>
+      <c r="G12" s="61">
+        <v>255000</v>
+      </c>
+      <c r="H12" s="61">
+        <f t="shared" ref="H12:H13" si="0">F12*G12</f>
+        <v>1275000</v>
+      </c>
+      <c r="I12" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="63">
+        <f t="shared" ref="J12:J13" si="1">H12*(1-I12)</f>
+        <v>637500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="60">
+        <v>6</v>
+      </c>
+      <c r="G13" s="61">
+        <v>550000</v>
+      </c>
+      <c r="H13" s="61">
+        <f t="shared" si="0"/>
+        <v>3300000</v>
+      </c>
+      <c r="I13" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="63">
+        <f t="shared" si="1"/>
+        <v>1650000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Doanh thu" sheetId="1" r:id="rId1"/>
+    <sheet name="Thưởng" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>1CX90</t>
   </si>
@@ -82,22 +82,25 @@
     <t>ĐL Duy nhất</t>
   </si>
   <si>
-    <t>GCX45</t>
-  </si>
-  <si>
-    <t>SN45</t>
-  </si>
-  <si>
     <t>ĐL Nhất Nhất</t>
   </si>
   <si>
-    <t>Đã thanh toán 6 hộp số 1 nhỏ ck 35%</t>
-  </si>
-  <si>
     <t>Vĩnh Phúc</t>
   </si>
   <si>
     <t>Số lượng (thùng)</t>
+  </si>
+  <si>
+    <t>Như vậy:</t>
+  </si>
+  <si>
+    <t>Đạt doanh số 20 thùng hàng với số tiền là: 110.280.000</t>
+  </si>
+  <si>
+    <t>Thưởng doanh số 10 thùng và 5 thùng tri ân: 15 thùng</t>
+  </si>
+  <si>
+    <t>Đã chuyển 4 thùng số 1 ngày 11/10/2020</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -179,7 +182,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,14 +195,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -295,19 +292,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -345,20 +329,86 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -442,72 +492,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,48 +504,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,15 +516,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,24 +549,140 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +981,7 @@
     <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
@@ -943,7 +992,7 @@
       <c r="F1" s="24"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
@@ -954,84 +1003,84 @@
       <c r="F2" s="29"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="48" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="93"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
         <v>499</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="75">
         <v>44029</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>24</v>
+      <c r="D8" s="62" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -1050,11 +1099,11 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1072,11 +1121,11 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1094,29 +1143,29 @@
         <v>5820000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
         <v>620</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="75">
         <v>44036</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="44">
+        <v>2</v>
+      </c>
+      <c r="G11" s="44">
         <v>24</v>
       </c>
-      <c r="E11" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="83">
-        <v>2</v>
-      </c>
-      <c r="G11" s="83">
-        <v>24</v>
-      </c>
-      <c r="H11" s="84">
+      <c r="H11" s="45">
         <v>455000</v>
       </c>
       <c r="I11" s="2">
@@ -1124,21 +1173,21 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="87" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="48">
         <v>1</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="48">
         <v>12</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="49">
         <v>465000</v>
       </c>
       <c r="I12" s="5">
@@ -1146,21 +1195,21 @@
         <v>5580000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="85" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="46">
         <v>1</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="46">
         <v>12</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="47">
         <v>475000</v>
       </c>
       <c r="I13" s="7">
@@ -1168,59 +1217,59 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
         <v>624</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="75">
         <v>44041</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
+      <c r="G14" s="44">
         <v>24</v>
       </c>
-      <c r="E14" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="83">
-        <v>1</v>
-      </c>
-      <c r="G14" s="83">
-        <v>24</v>
-      </c>
-      <c r="H14" s="84">
+      <c r="H14" s="45">
         <v>225000</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="45">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="85" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="46">
         <v>2</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="46">
         <v>24</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="47">
         <v>455000</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="47">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>655</v>
       </c>
@@ -1231,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>0</v>
@@ -1249,139 +1298,133 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="56" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+    </row>
+    <row r="17" spans="1:13" s="34" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
         <v>661</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="31">
         <v>44070</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="32">
         <v>24</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="H17" s="33">
+        <v>455000</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" ref="I17" si="1">G17*H17</f>
+        <v>10920000</v>
+      </c>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <v>665</v>
+      </c>
+      <c r="B18" s="58">
+        <v>44088</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F18" s="35">
         <v>2</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G18" s="35">
         <v>24</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H18" s="36">
         <v>455000</v>
       </c>
-      <c r="I17" s="55">
-        <f t="shared" ref="I17:I20" si="1">G17*H17</f>
-        <v>10920000</v>
-      </c>
-      <c r="M17" s="89">
-        <f>6*225000*(1-35%)</f>
-        <v>877500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
-        <v>665</v>
-      </c>
-      <c r="B18" s="69">
-        <v>44088</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="71">
-        <v>2</v>
-      </c>
-      <c r="G18" s="71">
-        <v>24</v>
-      </c>
-      <c r="H18" s="72">
-        <v>455000</v>
-      </c>
-      <c r="I18" s="73">
+      <c r="I18" s="37">
         <f>G18*H18</f>
         <v>10920000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="77" t="s">
+    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="38">
         <v>2</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="38">
         <v>24</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="39">
         <v>465000</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="40">
         <f>G19*H19</f>
         <v>11160000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
         <v>670</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="43">
         <v>44092</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="41">
         <v>24</v>
       </c>
-      <c r="E20" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="54">
-        <v>1</v>
-      </c>
-      <c r="G20" s="80">
-        <v>24</v>
-      </c>
-      <c r="H20" s="81">
+      <c r="H20" s="42">
         <v>225000</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="42">
         <f>G20*H20</f>
         <v>5400000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="91">
+      <c r="F21" s="52">
         <f>SUM(F8:F20)</f>
         <v>20</v>
       </c>
-      <c r="G21" s="91">
+      <c r="G21" s="52">
         <f>SUM(G8:G20)</f>
         <v>264</v>
       </c>
@@ -1390,10 +1433,7 @@
         <f>SUM(I8:I20)</f>
         <v>110280000</v>
       </c>
-      <c r="M21" s="90">
-        <f>I21-M17</f>
-        <v>109402500</v>
-      </c>
+      <c r="M21" s="51"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
@@ -1404,15 +1444,46 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="79"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A18:A19"/>
@@ -1429,20 +1500,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1451,146 +1508,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:J13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
-        <v>776</v>
-      </c>
-      <c r="B10" s="58">
-        <v>44070</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="60">
+    <row r="1" spans="1:9" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="61">
-        <v>255000</v>
-      </c>
-      <c r="H10" s="61">
-        <f>F10*G10</f>
-        <v>1275000</v>
-      </c>
-      <c r="I10" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="63">
-        <f>H10*(1-I10)</f>
-        <v>637500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="60">
+      <c r="B5" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="61">
-        <v>550000</v>
-      </c>
-      <c r="H11" s="61">
-        <f>F11*G11</f>
-        <v>3850000</v>
-      </c>
-      <c r="I11" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="63">
-        <f>H11*(1-I11)</f>
-        <v>1925000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
-        <v>671</v>
-      </c>
-      <c r="B12" s="58">
-        <v>44093</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="60">
-        <v>5</v>
-      </c>
-      <c r="G12" s="61">
-        <v>255000</v>
-      </c>
-      <c r="H12" s="61">
-        <f t="shared" ref="H12:H13" si="0">F12*G12</f>
-        <v>1275000</v>
-      </c>
-      <c r="I12" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="63">
-        <f t="shared" ref="J12:J13" si="1">H12*(1-I12)</f>
-        <v>637500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="60">
-        <v>6</v>
-      </c>
-      <c r="G13" s="61">
-        <v>550000</v>
-      </c>
-      <c r="H13" s="61">
-        <f t="shared" si="0"/>
-        <v>3300000</v>
-      </c>
-      <c r="I13" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="63">
-        <f t="shared" si="1"/>
-        <v>1650000</v>
-      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84">
+        <v>44115</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="91">
+        <v>4</v>
+      </c>
+      <c r="G8" s="91">
+        <f>12*F8</f>
+        <v>48</v>
+      </c>
+      <c r="H8" s="92">
+        <v>455000</v>
+      </c>
+      <c r="I8" s="93">
+        <f>G8*H8</f>
+        <v>21840000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+  <mergeCells count="12">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -100,7 +100,7 @@
     <t>Thưởng doanh số 10 thùng và 5 thùng tri ân: 15 thùng</t>
   </si>
   <si>
-    <t>Đã chuyển 4 thùng số 1 ngày 11/10/2020</t>
+    <t>Đã chuyển 4 thùng số 1 ngày 11/10/2020 đơn 821</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -330,37 +330,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -410,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,9 +461,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,9 +493,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,15 +519,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,12 +603,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,71 +627,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,82 +967,82 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="82" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="68"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="A8" s="61">
         <v>499</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="63">
         <v>44029</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="65" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1100,10 +1063,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1122,10 +1085,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1144,28 +1107,28 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+      <c r="A11" s="61">
         <v>620</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="63">
         <v>44036</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="42">
         <v>2</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="42">
         <v>24</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="43">
         <v>455000</v>
       </c>
       <c r="I11" s="2">
@@ -1174,20 +1137,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="48" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="46">
         <v>1</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="46">
         <v>12</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="47">
         <v>465000</v>
       </c>
       <c r="I12" s="5">
@@ -1196,20 +1159,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="46" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="44">
         <v>1</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="44">
         <v>12</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="45">
         <v>475000</v>
       </c>
       <c r="I13" s="7">
@@ -1218,53 +1181,53 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+      <c r="A14" s="61">
         <v>624</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="63">
         <v>44041</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <v>1</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="42">
         <v>24</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="43">
         <v>225000</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="43">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="46" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="44">
         <v>2</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="44">
         <v>24</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="45">
         <v>455000</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="45">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
@@ -1299,132 +1262,132 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+    <row r="17" spans="1:13" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>661</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="90">
         <v>44070</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>24</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>455000</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <f t="shared" ref="I17" si="1">G17*H17</f>
         <v>10920000</v>
       </c>
-      <c r="M17" s="50"/>
-    </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
         <v>665</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="75">
         <v>44088</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <v>2</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>24</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>455000</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <f>G18*H18</f>
         <v>10920000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="38" t="s">
+    <row r="19" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>2</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>24</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>465000</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="39">
         <f>G19*H19</f>
         <v>11160000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+    <row r="20" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>670</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="91">
         <v>44092</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>1</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>24</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>225000</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="41">
         <f>G20*H20</f>
         <v>5400000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="52">
+      <c r="F21" s="50">
         <f>SUM(F8:F20)</f>
         <v>20</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="50">
         <f>SUM(G8:G20)</f>
         <v>264</v>
       </c>
@@ -1433,7 +1396,7 @@
         <f>SUM(I8:I20)</f>
         <v>110280000</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="49"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
@@ -1444,10 +1407,10 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1470,20 +1433,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A18:A19"/>
@@ -1500,6 +1449,20 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1511,11 +1474,12 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
     <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1545,228 +1509,230 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="82" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="68"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84">
+      <c r="A8" s="87">
+        <v>821</v>
+      </c>
+      <c r="B8" s="88">
         <v>44115</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="87">
         <v>4</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="87">
         <f>12*F8</f>
         <v>48</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="89">
         <v>455000</v>
       </c>
-      <c r="I8" s="93">
+      <c r="I8" s="89">
         <f>G8*H8</f>
         <v>21840000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="87"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="87"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Doanh thu" sheetId="1" r:id="rId1"/>
@@ -537,6 +537,99 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,99 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,82 +967,82 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="79" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="76" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="83"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="81">
         <v>499</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="84">
         <v>44029</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1063,10 +1063,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1085,10 +1085,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1107,16 +1107,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
+      <c r="A11" s="81">
         <v>620</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="84">
         <v>44036</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -1137,10 +1137,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="46" t="s">
         <v>3</v>
       </c>
@@ -1159,10 +1159,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="44" t="s">
         <v>1</v>
       </c>
@@ -1181,16 +1181,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="81">
         <v>624</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="84">
         <v>44041</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="42" t="s">
@@ -1211,10 +1211,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="44" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="A17" s="31">
         <v>661</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="60">
         <v>44070</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -1294,16 +1294,16 @@
       <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
+      <c r="A18" s="65">
         <v>665</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="67">
         <v>44088</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="34" t="s">
@@ -1324,10 +1324,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="37" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="A20" s="31">
         <v>670</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="61">
         <v>44092</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -1376,12 +1376,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="13"/>
       <c r="F21" s="50">
         <f>SUM(F8:F20)</f>
@@ -1407,10 +1407,10 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1433,6 +1433,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A18:A19"/>
@@ -1449,20 +1463,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,95 +1509,95 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="79" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="76" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="83"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="87">
+      <c r="A8" s="57">
         <v>821</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="58">
         <v>44115</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="57">
         <v>4</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="57">
         <f>12*F8</f>
         <v>48</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="59">
         <v>455000</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="59">
         <f>G8*H8</f>
         <v>21840000</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,15 +552,54 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,12 +618,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,38 +642,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,82 +970,82 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="87" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="77"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="66">
         <v>499</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="68">
         <v>44029</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1063,10 +1066,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1085,10 +1088,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1107,16 +1110,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="66">
         <v>620</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="68">
         <v>44036</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -1137,10 +1140,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="46" t="s">
         <v>3</v>
       </c>
@@ -1159,10 +1162,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="44" t="s">
         <v>1</v>
       </c>
@@ -1181,16 +1184,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="66">
         <v>624</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="68">
         <v>44041</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="42" t="s">
@@ -1211,10 +1214,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="44" t="s">
         <v>0</v>
       </c>
@@ -1294,16 +1297,16 @@
       <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+      <c r="A18" s="78">
         <v>665</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="80">
         <v>44088</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="34" t="s">
@@ -1324,10 +1327,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="72"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="37" t="s">
         <v>3</v>
       </c>
@@ -1376,12 +1379,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="13"/>
       <c r="F21" s="50">
         <f>SUM(F8:F20)</f>
@@ -1407,10 +1410,10 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="88"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1433,20 +1436,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A18:A19"/>
@@ -1463,6 +1452,20 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1474,7 +1477,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,71 +1512,71 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="87" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="77"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
@@ -1603,8 +1606,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="92">
+        <v>1238</v>
+      </c>
+      <c r="B9" s="52">
+        <v>44153</v>
+      </c>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Đại Lý nhất nhất/Doanh thu.xlsx
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,6 +552,87 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,85 +645,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,82 +973,82 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="88"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="82">
         <v>499</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="85">
         <v>44029</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1066,10 +1069,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1088,10 +1091,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1110,16 +1113,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
+      <c r="A11" s="82">
         <v>620</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="85">
         <v>44036</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -1140,10 +1143,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="46" t="s">
         <v>3</v>
       </c>
@@ -1162,10 +1165,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="44" t="s">
         <v>1</v>
       </c>
@@ -1184,16 +1187,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="82">
         <v>624</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="85">
         <v>44041</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="42" t="s">
@@ -1214,10 +1217,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="44" t="s">
         <v>0</v>
       </c>
@@ -1297,16 +1300,16 @@
       <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="66">
         <v>665</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="68">
         <v>44088</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="34" t="s">
@@ -1327,10 +1330,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="71"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="37" t="s">
         <v>3</v>
       </c>
@@ -1379,12 +1382,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="13"/>
       <c r="F21" s="50">
         <f>SUM(F8:F20)</f>
@@ -1410,10 +1413,10 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1436,6 +1439,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A18:A19"/>
@@ -1452,20 +1469,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1477,7 +1480,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,71 +1515,71 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="88"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
@@ -1606,7 +1609,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="A9" s="62">
         <v>1238</v>
       </c>
       <c r="B9" s="52">
@@ -1615,7 +1618,9 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="F9" s="57">
+        <v>2</v>
+      </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="53"/>
@@ -1626,18 +1631,24 @@
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="57">
+        <v>1</v>
+      </c>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
       <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="B11" s="52">
+        <v>44216</v>
+      </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="F11" s="57">
+        <v>3</v>
+      </c>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
       <c r="I11" s="53"/>
@@ -1648,7 +1659,10 @@
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="F12" s="93">
+        <f>SUM(F8:F11)</f>
+        <v>10</v>
+      </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="53"/>
